--- a/T3-Reports/T3_status_091720.xlsx
+++ b/T3-Reports/T3_status_091720.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louie/NetBeansProjects/mthree_projects/order-book-project-team-3/T3-Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A626265C-1801-5445-B674-3F6798AAEAA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232E4456-C5B0-7445-B5B5-046A1111B932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23600" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Project</t>
   </si>
@@ -188,22 +188,25 @@
     <t>Zeenat (Backend)</t>
   </si>
   <si>
-    <t>Merged frontend and backend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finished Up service layer, worked on controllers </t>
-  </si>
-  <si>
-    <t>Worked on front end and github issue</t>
-  </si>
-  <si>
-    <t>merging conflict in github</t>
-  </si>
-  <si>
-    <t>worked through it</t>
-  </si>
-  <si>
-    <t>complete</t>
+    <t>Worked on stockDetail and refactor front end</t>
+  </si>
+  <si>
+    <t>Worked on stockDetail, helped with backend logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debug matching engine </t>
+  </si>
+  <si>
+    <t>Worked on matching engine and tests</t>
+  </si>
+  <si>
+    <t>Worked on matching engine and service layer tests</t>
+  </si>
+  <si>
+    <t>still working through it</t>
+  </si>
+  <si>
+    <t>in-progress</t>
   </si>
 </sst>
 </file>
@@ -538,6 +541,18 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,18 +561,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="39">
@@ -939,7 +942,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C4" activeCellId="1" sqref="C19 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -951,15 +954,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -987,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="23">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>6</v>
@@ -1008,9 +1011,9 @@
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
@@ -1020,9 +1023,9 @@
         <v>26</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
@@ -1059,7 +1062,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -1072,7 +1075,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -1085,7 +1088,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -1098,7 +1101,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -1148,16 +1151,16 @@
         <v>1</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1219,7 +1222,7 @@
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="34">
+      <c r="D23" s="31">
         <v>1</v>
       </c>
       <c r="E23" s="27"/>
@@ -1232,8 +1235,8 @@
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="35">
-        <v>0.55000000000000004</v>
+      <c r="D24" s="32">
+        <v>0.6</v>
       </c>
       <c r="E24" s="29">
         <v>44096</v>
@@ -1247,8 +1250,8 @@
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="36">
-        <v>0</v>
+      <c r="D25" s="32">
+        <v>0.1</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="14"/>
@@ -1260,11 +1263,11 @@
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="35">
-        <v>0.26</v>
+      <c r="D26" s="32">
+        <v>0.35</v>
       </c>
       <c r="E26" s="29">
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -1275,8 +1278,8 @@
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="36">
-        <v>0</v>
+      <c r="D27" s="32">
+        <v>0.08</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="14"/>
@@ -1288,7 +1291,7 @@
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="36">
+      <c r="D28" s="33">
         <v>0</v>
       </c>
       <c r="E28" s="29"/>
@@ -1301,7 +1304,7 @@
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="37">
+      <c r="D29" s="34">
         <v>1</v>
       </c>
       <c r="E29" s="15"/>
